--- a/bots/crawl_ch/output/bread_coop_2022-12-11.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-12-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O410"/>
+  <dimension ref="A1:O409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Pizzateig ausgewallt 28x38cm 4.40 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Pizzateig ausgewallt 28x38cm - Online kein Bestand 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5285,7 +5285,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5431,45 +5431,45 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4896264</t>
+          <t>5688322</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Happy Brunch Frischback 6x90g</t>
+          <t>Wasa Knäckebrot Original</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/happy-brunch-frischback-6x90g/p/4896264</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-original/p/5688322</t>
         </is>
       </c>
       <c r="D71" t="n">
         <v>43</v>
       </c>
       <c r="E71" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>1.10/100g</t>
+          <t>0.93/100g</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5489,56 +5489,56 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Happy Brunch Frischback 6x90g 5.95 Schweizer Franken</t>
+          <t>Wasa Knäckebrot Original 20% ab 2 Aktion 1.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>5688322</t>
+          <t>4896264</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Original</t>
+          <t>Happy Brunch Frischback 6x90g</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-original/p/5688322</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/happy-brunch-frischback-6x90g/p/4896264</t>
         </is>
       </c>
       <c r="D72" t="n">
         <v>43</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.93/100g</t>
+          <t>1.10/100g</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5558,18 +5558,18 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Original 20% ab 2 Aktion 1.90 Schweizer Franken</t>
+          <t>Happy Brunch Frischback 6x90g 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Betty Bossi Butterblätterteig eckig ausgewallt 25x42cm 3.70 Schweizer Franken</t>
+          <t>Betty Bossi Butterblätterteig eckig ausgewallt 25x42cm - Online kein Bestand 3.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6145,7 +6145,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6214,7 +6214,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6283,7 +6283,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6419,7 +6419,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Kuchenteig rund ausgewallt Ø32cm 2.10 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Kuchenteig rund ausgewallt Ø32cm - Online kein Bestand 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6498,7 +6498,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6567,7 +6567,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6705,7 +6705,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6916,7 +6916,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7058,7 +7058,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7131,7 +7131,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7346,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7409,7 +7409,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Blätterteig ausgewallt 2.40 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Blätterteig ausgewallt - Online kein Bestand 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7703,7 +7703,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7776,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7910,7 +7910,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8340,7 +8340,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8478,7 +8478,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8547,7 +8547,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8620,7 +8620,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8693,7 +8693,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8762,7 +8762,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -8831,45 +8831,45 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>4445114</t>
+          <t>6797336</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Schokolade dunkel</t>
+          <t>DUNKIN' DONUTS Rings Mix 4 Stück</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-cracker-schokolade-dunkel/p/4445114</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/dunkin-donuts-rings-mix-4-stueck/p/6797336</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E119" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>DUNKIN' DONUTS</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2.69/100g</t>
+          <t>3.11/100g</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8879,7 +8879,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -8889,56 +8889,56 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Schokolade dunkel 4.95 Schweizer Franken</t>
+          <t>DUNKIN' DONUTS Rings Mix 4 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>6797336</t>
+          <t>4445114</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS Rings Mix 4 Stück</t>
+          <t>Dar-Vida Cracker Schokolade dunkel</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/dunkin-donuts-rings-mix-4-stueck/p/6797336</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-cracker-schokolade-dunkel/p/4445114</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E120" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>3.11/100g</t>
+          <t>2.69/100g</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8948,7 +8948,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -8958,18 +8958,18 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS Rings Mix 4 Stück 8.95 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Schokolade dunkel 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -9042,31 +9042,31 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>6628847</t>
+          <t>4522047</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Betty Bossi Grossmutters Schoggi Cake</t>
+          <t>Betty Bossi Naturaplan Bio Pizzateig Rustico Ø28cm</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-grossmutters-schoggi-cake/p/6628847</t>
+          <t>/de/inspiration-geschenke/ernaehrung/vegan/brot-backwaren/betty-bossi-naturaplan-bio-pizzateig-rustico-28cm/p/4522047</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E122" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -9075,12 +9075,12 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>1.28/100g</t>
+          <t>1.26/100g</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9090,7 +9090,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -9100,46 +9100,46 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['inspiration-geschenke', 'ernaehrung', 'vegan', 'brot-backwaren']</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Betty Bossi Grossmutters Schoggi Cake 5.10 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Pizzateig Rustico Ø28cm 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>4522047</t>
+          <t>6628847</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Pizzateig Rustico Ø28cm</t>
+          <t>Betty Bossi Grossmutters Schoggi Cake</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/ernaehrung/vegan/brot-backwaren/betty-bossi-naturaplan-bio-pizzateig-rustico-28cm/p/4522047</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-grossmutters-schoggi-cake/p/6628847</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E123" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -9148,12 +9148,12 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>1.26/100g</t>
+          <t>1.28/100g</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -9173,22 +9173,22 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'ernaehrung', 'vegan', 'brot-backwaren']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Pizzateig Rustico Ø28cm 3.40 Schweizer Franken</t>
+          <t>Betty Bossi Grossmutters Schoggi Cake 5.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -9403,7 +9403,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -9476,7 +9476,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -9545,7 +9545,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -9618,7 +9618,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -9760,7 +9760,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -9829,7 +9829,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -9898,7 +9898,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10040,7 +10040,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10109,7 +10109,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10178,7 +10178,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10247,7 +10247,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10320,7 +10320,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10535,7 +10535,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10608,7 +10608,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10754,7 +10754,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10896,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11184,7 +11184,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11253,7 +11253,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11322,7 +11322,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11460,7 +11460,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11529,7 +11529,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11598,7 +11598,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11671,7 +11671,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11740,7 +11740,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11813,7 +11813,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -11959,7 +11959,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12028,7 +12028,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12101,7 +12101,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12170,7 +12170,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12312,7 +12312,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12381,7 +12381,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12450,7 +12450,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12596,7 +12596,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12669,31 +12669,31 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>6099147</t>
+          <t>4373135</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Aprikosen-Törtli</t>
+          <t>Prix Garantie Mini Chinois 6 Stück</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosen-toertli/p/6099147</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-mini-chinois-6-stueck/p/4373135</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E173" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -12702,12 +12702,12 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -12727,42 +12727,42 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>Aprikosen-Törtli 1.40 Schweizer Franken</t>
+          <t>Prix Garantie Mini Chinois 6 Stück 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>4373135</t>
+          <t>6099147</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Chinois 6 Stück</t>
+          <t>Aprikosen-Törtli</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-mini-chinois-6-stueck/p/4373135</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosen-toertli/p/6099147</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E174" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -12771,12 +12771,12 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12786,7 +12786,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -12796,18 +12796,18 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Chinois 6 Stück 2.70 Schweizer Franken</t>
+          <t>Aprikosen-Törtli 1.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12880,7 +12880,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -13024,7 +13024,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -13097,7 +13097,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -13160,7 +13160,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>Betty Bossi Butter-Mailänderli Guetzliteig 20% ab 2 Aktion 4.40 Schweizer Franken</t>
+          <t>Betty Bossi Butter-Mailänderli Guetzliteig - Online kein Bestand 20% ab 2 Aktion 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -13170,7 +13170,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -13243,7 +13243,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -13312,45 +13312,45 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>6345143</t>
+          <t>6820357</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Dar-Vida Simply Sesame</t>
+          <t>Betty Bossi Frischback Butterzopf IP-Suisse</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-simply-sesame/p/6345143</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/betty-bossi-frischback-butterzopf-ip-suisse/p/6820357</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E182" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2.25/100g</t>
+          <t>0.78/100g</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13360,7 +13360,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -13370,56 +13370,60 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>Dar-Vida Simply Sesame 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N182" t="inlineStr"/>
+          <t>Betty Bossi Frischback Butterzopf IP-Suisse 4.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>6820357</t>
+          <t>3410121</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Butterzopf IP-Suisse</t>
+          <t>Kirsprolls Vollkorn-Schwedenbrötchen</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/betty-bossi-frischback-butterzopf-ip-suisse/p/6820357</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/kirsprolls-vollkorn-schwedenbroetchen/p/3410121</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E183" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Krisprolls</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>0.78/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13429,7 +13433,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -13439,60 +13443,60 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Butterzopf IP-Suisse 4.70 Schweizer Franken</t>
+          <t>Kirsprolls Vollkorn-Schwedenbrötchen 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>3410121</t>
+          <t>6825720</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Kirsprolls Vollkorn-Schwedenbrötchen</t>
+          <t>Prix Garantie Roggenvollkornbrot</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/kirsprolls-vollkorn-schwedenbroetchen/p/3410121</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/prix-garantie-roggenvollkornbrot/p/6825720</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E184" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Krisprolls</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>0.36/100g</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13502,7 +13506,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13512,60 +13516,56 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>Kirsprolls Vollkorn-Schwedenbrötchen 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Roggenvollkornbrot 1.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>6825720</t>
+          <t>3726465</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggenvollkornbrot</t>
+          <t>Pasquier Pancakes 10 Stück</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/prix-garantie-roggenvollkornbrot/p/6825720</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-10-stueck/p/3726465</t>
         </is>
       </c>
       <c r="D185" t="n">
         <v>5</v>
       </c>
       <c r="E185" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>0.36/100g</t>
+          <t>1.20/100g</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13575,7 +13575,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -13585,35 +13585,35 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggenvollkornbrot 1.80 Schweizer Franken</t>
+          <t>Pasquier Pancakes 10 Stück 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>3726465</t>
+          <t>6345143</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes 10 Stück</t>
+          <t>Dar-Vida Simply Sesame</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-10-stueck/p/3726465</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-simply-sesame/p/6345143</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -13624,17 +13624,17 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>1.20/100g</t>
+          <t>2.25/100g</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13644,7 +13644,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -13654,18 +13654,18 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes 10 Stück 4.20 Schweizer Franken</t>
+          <t>Dar-Vida Simply Sesame 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -13734,7 +13734,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -13807,7 +13807,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -13880,7 +13880,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -13953,7 +13953,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14022,7 +14022,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14095,7 +14095,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14164,7 +14164,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14233,7 +14233,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14306,28 +14306,28 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>4338613</t>
+          <t>3041124</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>JaMaDu Fairtrade Reiswaffeln mit Honig</t>
+          <t>Naturaplan Bio Sonnenblumenbrot</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/jamadu-fairtrade-reiswaffeln-mit-honig/p/4338613</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/naturaplan-bio-sonnenblumenbrot/p/3041124</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E196" t="n">
         <v>4.5</v>
@@ -14339,12 +14339,12 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>3.25/100g</t>
+          <t>0.59/100g</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14354,7 +14354,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -14364,43 +14364,43 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>JaMaDu Fairtrade Reiswaffeln mit Honig 1.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Sonnenblumenbrot 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>3041124</t>
+          <t>4338613</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Sonnenblumenbrot</t>
+          <t>JaMaDu Fairtrade Reiswaffeln mit Honig</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/naturaplan-bio-sonnenblumenbrot/p/3041124</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/jamadu-fairtrade-reiswaffeln-mit-honig/p/4338613</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E197" t="n">
         <v>4.5</v>
@@ -14412,12 +14412,12 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>0.59/100g</t>
+          <t>3.25/100g</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14427,7 +14427,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -14437,22 +14437,22 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Sonnenblumenbrot 2.95 Schweizer Franken</t>
+          <t>JaMaDu Fairtrade Reiswaffeln mit Honig 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14521,45 +14521,45 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>6668613</t>
+          <t>3023036</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig eckig</t>
+          <t>Old El Paso Taco-Schalen 12 Stück</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-eckig/p/6668613</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-taco-schalen-12-stueck/p/3023036</t>
         </is>
       </c>
       <c r="D199" t="n">
+        <v>11</v>
+      </c>
+      <c r="E199" t="n">
         <v>4</v>
       </c>
-      <c r="E199" t="n">
-        <v>3</v>
-      </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>0.42/100g</t>
+          <t>2.50/100g</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14569,7 +14569,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -14579,60 +14579,56 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig eckig 1.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N199" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Old El Paso Taco-Schalen 12 Stück 3.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>3023036</t>
+          <t>6668613</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Old El Paso Taco-Schalen 12 Stück</t>
+          <t>Prix Garantie Kuchenteig eckig</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-taco-schalen-12-stueck/p/3023036</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-eckig/p/6668613</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E200" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2.50/100g</t>
+          <t>0.42/100g</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14642,7 +14638,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -14652,18 +14648,22 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>Old El Paso Taco-Schalen 12 Stück 3.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N200" t="inlineStr"/>
+          <t>Prix Garantie Kuchenteig eckig 1.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14732,7 +14732,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14801,7 +14801,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14870,7 +14870,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -14943,7 +14943,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15012,7 +15012,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15152,7 +15152,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15221,7 +15221,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15290,7 +15290,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15359,7 +15359,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15432,7 +15432,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15505,7 +15505,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15578,7 +15578,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15651,7 +15651,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15720,7 +15720,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15793,7 +15793,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15866,7 +15866,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -15939,7 +15939,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -16012,7 +16012,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -16085,7 +16085,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -16154,45 +16154,45 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>6629227</t>
+          <t>6668455</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla Pockets 8 Stück</t>
+          <t>Betty Bossi Kuchenteig -35% Fett</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-pockets-8-stueck/p/6629227</t>
+          <t>/de/inspiration-geschenke/ernaehrung/vegan/brot-backwaren/betty-bossi-kuchenteig-35-fett/p/6668455</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E222" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>0.78/100g</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16202,7 +16202,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -16212,56 +16212,60 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['inspiration-geschenke', 'ernaehrung', 'vegan', 'brot-backwaren']</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla Pockets 8 Stück 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N222" t="inlineStr"/>
+          <t>Betty Bossi Kuchenteig -35% Fett 2.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>6668455</t>
+          <t>3734986</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig -35% Fett</t>
+          <t>Mulino Bianco 5-Kornbrot mit Soja</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/ernaehrung/vegan/brot-backwaren/betty-bossi-kuchenteig-35-fett/p/6668455</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-5-kornbrot-mit-soja/p/3734986</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E223" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>0.78/100g</t>
+          <t>0.60/100g</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -16271,7 +16275,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -16281,60 +16285,56 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'ernaehrung', 'vegan', 'brot-backwaren']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig -35% Fett 2.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N223" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Mulino Bianco 5-Kornbrot mit Soja 2.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>3734986</t>
+          <t>6629227</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Mulino Bianco 5-Kornbrot mit Soja</t>
+          <t>Old el Paso Tortilla Pockets 8 Stück</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-5-kornbrot-mit-soja/p/3734986</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-pockets-8-stueck/p/6629227</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E224" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>0.60/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -16344,7 +16344,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -16354,18 +16354,18 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>Mulino Bianco 5-Kornbrot mit Soja 2.40 Schweizer Franken</t>
+          <t>Old el Paso Tortilla Pockets 8 Stück 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -16438,7 +16438,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -16507,7 +16507,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -16580,7 +16580,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -16649,7 +16649,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -16722,7 +16722,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -16791,7 +16791,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -16860,7 +16860,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -16933,7 +16933,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17002,7 +17002,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17071,7 +17071,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17140,7 +17140,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17213,7 +17213,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17282,7 +17282,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17351,7 +17351,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17420,7 +17420,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17487,7 +17487,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17560,7 +17560,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17629,7 +17629,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17702,7 +17702,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17771,7 +17771,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17913,7 +17913,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -17986,7 +17986,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18055,7 +18055,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18128,7 +18128,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18197,7 +18197,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18270,7 +18270,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18339,7 +18339,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18412,7 +18412,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18481,7 +18481,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18548,7 +18548,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18621,7 +18621,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18694,7 +18694,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18767,7 +18767,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18836,7 +18836,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18905,7 +18905,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -18974,7 +18974,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -19043,7 +19043,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -19112,7 +19112,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -19181,7 +19181,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -19254,7 +19254,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -19323,7 +19323,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -19396,7 +19396,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -19467,7 +19467,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -19536,7 +19536,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -19605,45 +19605,45 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>6424899</t>
+          <t>3041815</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Prix Garantie Aprikosen Tartelettes</t>
+          <t>Hug Zwieback Original 250G</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-aprikosen-tartelettes/p/6424899</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E271" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>1.68/100g</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19653,7 +19653,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -19663,56 +19663,56 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>Prix Garantie Aprikosen Tartelettes 1.95 Schweizer Franken</t>
+          <t>Hug Zwieback Original 250G 20% ab 2 Aktion 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>3041815</t>
+          <t>6424899</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G</t>
+          <t>Prix Garantie Aprikosen Tartelettes</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-aprikosen-tartelettes/p/6424899</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E272" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>1.68/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19722,7 +19722,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -19732,18 +19732,18 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G 20% ab 2 Aktion 4.20 Schweizer Franken</t>
+          <t>Prix Garantie Aprikosen Tartelettes 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -19814,45 +19814,45 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>3602932</t>
+          <t>3909255</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Vollkorn Brotkörbchen 10 Portionen</t>
+          <t>Schär Knusperbrot glutenfrei</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/vollkorn-brotkoerbchen-10-portionen/p/3602932</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E274" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Mestemacher</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>1.80/100g</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -19862,7 +19862,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19872,56 +19872,60 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Vollkorn Brotkörbchen 10 Portionen 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N274" t="inlineStr"/>
+          <t>Schär Knusperbrot glutenfrei 20% ab 2 Aktion 2.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>3909255</t>
+          <t>3602932</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei</t>
+          <t>Vollkorn Brotkörbchen 10 Portionen</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/vollkorn-brotkoerbchen-10-portionen/p/3602932</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E275" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Mestemacher</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>1.80/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -19931,7 +19935,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -19941,60 +19945,56 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei 20% ab 2 Aktion 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N275" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Vollkorn Brotkörbchen 10 Portionen 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>6723241</t>
+          <t>4496109</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla XL Glutenfree 4 Stück</t>
+          <t>Betty Bossi Amaretti Guetzliteig</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-xl-glutenfree-4-stueck/p/6723241</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-amaretti-guetzliteig/p/4496109</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E276" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>3.02/100g</t>
+          <t>0.88/100g</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20004,7 +20004,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -20014,60 +20014,60 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla XL Glutenfree 4 Stück 6.50 Schweizer Franken</t>
+          <t>Betty Bossi Amaretti Guetzliteig 20% ab 2 Aktion 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>['vegetarian', 'gluten_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>6387363</t>
+          <t>6723241</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Karma Snack Mais Hülsenfrüchte</t>
+          <t>Old el Paso Tortilla XL Glutenfree 4 Stück</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-mais-huelsenfruechte/p/6387363</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-xl-glutenfree-4-stueck/p/6723241</t>
         </is>
       </c>
       <c r="D277" t="n">
+        <v>3</v>
+      </c>
+      <c r="E277" t="n">
         <v>4</v>
       </c>
-      <c r="E277" t="n">
-        <v>5</v>
-      </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2.44/100g</t>
+          <t>3.02/100g</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -20077,7 +20077,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -20087,46 +20087,46 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>Karma Snack Mais Hülsenfrüchte 1.95 Schweizer Franken</t>
+          <t>Old el Paso Tortilla XL Glutenfree 4 Stück 6.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>4496109</t>
+          <t>6387363</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Betty Bossi Amaretti Guetzliteig</t>
+          <t>Karma Snack Mais Hülsenfrüchte</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-amaretti-guetzliteig/p/4496109</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-mais-huelsenfruechte/p/6387363</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E278" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -20135,12 +20135,12 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>0.88/100g</t>
+          <t>2.44/100g</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20150,7 +20150,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20160,22 +20160,22 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>Betty Bossi Amaretti Guetzliteig 20% ab 2 Aktion 4.40 Schweizer Franken</t>
+          <t>Karma Snack Mais Hülsenfrüchte 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -20248,7 +20248,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -20321,145 +20321,145 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>4314837</t>
+          <t>3040971</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück</t>
+          <t>Panettone</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone/p/3040971</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E281" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Kale</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>4.39/1kg</t>
+          <t>1.39/100g</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück 7.50 Schweizer Franken</t>
+          <t>Panettone 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>3040971</t>
+          <t>4314837</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Panettone</t>
+          <t>Kale Dürüm 30cm 18 Stück</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone/p/3040971</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E282" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Kale</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>1.39/100g</t>
+          <t>4.39/1kg</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>Panettone 6.95 Schweizer Franken</t>
+          <t>Kale Dürüm 30cm 18 Stück 7.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -20532,7 +20532,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -20599,7 +20599,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -20672,7 +20672,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -20745,32 +20745,32 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>7031403</t>
+          <t>6390812</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Blätterteig eckig</t>
+          <t>Prix Garantie Pudding Küchlein 6x200g</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-dinkel-blaetterteig-eckig/p/7031403</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-pudding-kuechlein-6x200g/p/6390812</t>
         </is>
       </c>
       <c r="D287" t="n">
+        <v>5</v>
+      </c>
+      <c r="E287" t="n">
         <v>3</v>
       </c>
-      <c r="E287" t="n">
-        <v>3.5</v>
-      </c>
       <c r="F287" t="inlineStr">
         <is>
           <t>Coop</t>
@@ -20778,12 +20778,12 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>1.09/100g</t>
+          <t>1.25/100g</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -20793,7 +20793,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -20803,46 +20803,42 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Blätterteig eckig 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N287" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Pudding Küchlein 6x200g 2.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>6390812</t>
+          <t>7031403</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Prix Garantie Pudding Küchlein 6x200g</t>
+          <t>Betty Bossi Dinkel Blätterteig eckig</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-pudding-kuechlein-6x200g/p/6390812</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-dinkel-blaetterteig-eckig/p/7031403</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E288" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -20851,12 +20847,12 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>1.25/100g</t>
+          <t>1.09/100g</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -20866,7 +20862,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -20876,18 +20872,22 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>Prix Garantie Pudding Küchlein 6x200g 2.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N288" t="inlineStr"/>
+          <t>Betty Bossi Dinkel Blätterteig eckig 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -20960,7 +20960,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -21029,7 +21029,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -21102,7 +21102,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -21175,7 +21175,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -21248,7 +21248,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -21317,7 +21317,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -21386,7 +21386,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -21459,7 +21459,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -21528,7 +21528,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -21601,7 +21601,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -21670,7 +21670,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -21743,45 +21743,45 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>7027777</t>
+          <t>5777498</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen</t>
+          <t>Old el Paso Soft Taco Shells Mini</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-taco-shells-mini/p/5777498</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E301" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>4.10/100g</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -21791,7 +21791,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -21801,60 +21801,56 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen 20% ab 2 Aktion 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N301" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Old el Paso Soft Taco Shells Mini 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>5777498</t>
+          <t>3378453</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Old el Paso Soft Taco Shells Mini</t>
+          <t>Betty Bossi Lebkuchen-Teig</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-taco-shells-mini/p/5777498</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-lebkuchen-teig/p/3378453</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E302" t="n">
         <v>4.5</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>4.10/100g</t>
+          <t>0.68/100g</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -21864,7 +21860,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -21874,56 +21870,60 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>Old el Paso Soft Taco Shells Mini 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N302" t="inlineStr"/>
+          <t>Betty Bossi Lebkuchen-Teig - Online kein Bestand 20% ab 2 Aktion 3.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>3378453</t>
+          <t>7027777</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Betty Bossi Lebkuchen-Teig</t>
+          <t>Le Pain des fleurs Bio Buchweizen</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-lebkuchen-teig/p/3378453</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E303" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>0.68/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -21933,7 +21933,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -21943,22 +21943,22 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>Betty Bossi Lebkuchen-Teig - Online kein Bestand 20% ab 2 Aktion 3.40 Schweizer Franken</t>
+          <t>Le Pain des fleurs Bio Buchweizen 20% ab 2 Aktion 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22031,7 +22031,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22104,45 +22104,45 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>4848822</t>
+          <t>4265298</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
+          <t>Naturaplan Bio Mini Haselnussrollen</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E306" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>3.08/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22152,7 +22152,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -22162,56 +22162,56 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück 5.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>4265298</t>
+          <t>4848822</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen</t>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E307" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>3.08/100g</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22221,7 +22221,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -22231,18 +22231,18 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22315,7 +22315,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22384,45 +22384,45 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>4944640</t>
+          <t>6313852</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot dunkel glutenfrei</t>
+          <t>Roland Petite Pause Guezli Fruits</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-dunkel-glutenfrei/p/4944640</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-guezli-fruits/p/6313852</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E310" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>2.36/100g</t>
+          <t>2.52/100g</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22432,7 +22432,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -22442,60 +22442,56 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot dunkel glutenfrei 20% ab 2 Aktion 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N310" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Roland Petite Pause Guezli Fruits 2.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>6313852</t>
+          <t>4944640</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Guezli Fruits</t>
+          <t>Schär Knusperbrot dunkel glutenfrei</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-guezli-fruits/p/6313852</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-dunkel-glutenfrei/p/4944640</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E311" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>2.52/100g</t>
+          <t>2.36/100g</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22505,7 +22501,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -22515,18 +22511,22 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Guezli Fruits 2.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N311" t="inlineStr"/>
+          <t>Schär Knusperbrot dunkel glutenfrei 20% ab 2 Aktion 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22599,7 +22599,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22668,7 +22668,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22741,7 +22741,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22814,7 +22814,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22887,7 +22887,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -22956,7 +22956,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -23025,7 +23025,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -23094,7 +23094,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -23163,7 +23163,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -23236,7 +23236,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -23305,7 +23305,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -23378,7 +23378,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -23447,7 +23447,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -23514,7 +23514,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -23587,7 +23587,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -23656,7 +23656,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -23729,7 +23729,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -23798,28 +23798,28 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>5653528</t>
+          <t>6630295</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell</t>
+          <t>Country Cracker Banane-Choco</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E330" t="n">
         <v>5</v>
@@ -23831,12 +23831,12 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>1.16/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -23846,7 +23846,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -23856,43 +23856,39 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N330" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Country Cracker Banane-Choco 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>6630295</t>
+          <t>5653528</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco</t>
+          <t>Betty Bossi Tortenboden hell</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E331" t="n">
         <v>5</v>
@@ -23904,12 +23900,12 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>1.16/100g</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -23919,7 +23915,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -23929,18 +23925,22 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N331" t="inlineStr"/>
+          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -24009,7 +24009,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -24082,7 +24082,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -24151,7 +24151,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -24220,7 +24220,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -24287,7 +24287,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -24356,7 +24356,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -24425,45 +24425,45 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>6863658</t>
+          <t>6729458</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange</t>
+          <t>Roland Cracker Sport High Protein Choco</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-cracker-sport-high-protein-choco/p/6729458</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E339" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>3.41/100g</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24473,7 +24473,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -24483,56 +24483,56 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
+          <t>Roland Cracker Sport High Protein Choco 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>6729458</t>
+          <t>6387361</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Roland Cracker Sport High Protein Choco</t>
+          <t>Karma Snack Schwarzer Reis</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-cracker-sport-high-protein-choco/p/6729458</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E340" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>3.41/100g</t>
+          <t>2.44/100g</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24542,7 +24542,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -24552,39 +24552,43 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>Roland Cracker Sport High Protein Choco 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N340" t="inlineStr"/>
+          <t>Karma Snack Schwarzer Reis 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>6387361</t>
+          <t>6863658</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis</t>
+          <t>Country Cracker Thymian Stange</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E341" t="n">
         <v>5</v>
@@ -24596,12 +24600,12 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>2.44/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24611,7 +24615,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -24621,22 +24625,18 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N341" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -24705,7 +24705,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -24778,7 +24778,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -24847,7 +24847,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -24916,24 +24916,24 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>7028474</t>
+          <t>6967945</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa</t>
+          <t>St. Michel Dooomino au chocolat</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-dooomino-au-chocolat/p/6967945</t>
         </is>
       </c>
       <c r="D346" t="n">
@@ -24944,17 +24944,17 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>2.93/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -24964,7 +24964,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -24974,60 +24974,56 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa 20% ab 2 Aktion 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N346" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>St. Michel Dooomino au chocolat 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>6967945</t>
+          <t>6659615</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>St. Michel Dooomino au chocolat</t>
+          <t>Country Cracker Karotte</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-dooomino-au-chocolat/p/6967945</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E347" t="n">
         <v>5</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25037,7 +25033,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25047,56 +25043,56 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>St. Michel Dooomino au chocolat 2.95 Schweizer Franken</t>
+          <t>Country Cracker Karotte 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>6659615</t>
+          <t>7028474</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte</t>
+          <t>Le Pain des fleurs Bio Quinoa</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E348" t="n">
         <v>5</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>2.93/100g</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25106,7 +25102,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25116,18 +25112,22 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N348" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Quinoa 20% ab 2 Aktion 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -25196,7 +25196,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -25265,7 +25265,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -25334,7 +25334,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -25407,7 +25407,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -25480,7 +25480,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -25549,7 +25549,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -25618,7 +25618,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -25687,7 +25687,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -25756,7 +25756,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -25825,7 +25825,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -25894,45 +25894,45 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>4092628</t>
+          <t>7069611</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g</t>
+          <t>Cocktail Blinis 20 Stück</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/cocktail-blinis-20-stueck/p/7069611</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Blini</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>1.97/100g</t>
+          <t>3.54/100g</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25942,7 +25942,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25952,56 +25952,60 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N360" t="inlineStr"/>
+          <t>Cocktail Blinis 20 Stück 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N360" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>6150312</t>
+          <t>4092628</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini</t>
+          <t>Schär Frischback Mini-Baguette 2x75g</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E361" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.97/100g</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26011,7 +26015,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -26021,56 +26025,56 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
+          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>6828459</t>
+          <t>6150312</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Aprikosenweggli</t>
+          <t>St.Michel Brownies blanc Mini</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E362" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26080,7 +26084,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -26095,51 +26099,51 @@
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
+          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>7069611</t>
+          <t>6828459</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Cocktail Blinis 20 Stück</t>
+          <t>Aprikosenweggli</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/cocktail-blinis-20-stueck/p/7069611</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E363" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Blini</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>3.54/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26149,7 +26153,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -26159,22 +26163,18 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>Cocktail Blinis 20 Stück 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N363" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -26243,7 +26243,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -26312,7 +26312,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -26381,7 +26381,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -26450,7 +26450,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -26517,7 +26517,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -26590,7 +26590,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -26659,7 +26659,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -26728,7 +26728,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -26795,7 +26795,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -26864,7 +26864,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -26937,7 +26937,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -27010,7 +27010,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -27079,7 +27079,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -27146,7 +27146,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -27219,45 +27219,45 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>3040524</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Dahli Christstollen</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/dahli-christstollen/p/3040524</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
         </is>
       </c>
       <c r="D379" t="n">
         <v>3</v>
       </c>
       <c r="E379" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Dahli</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>0.74/100g</t>
+          <t>1.72/100g</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27267,7 +27267,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -27277,18 +27277,18 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>Dahli Christstollen 20% Aktion 5.55 Schweizer Franken statt 6.95 Schweizer Franken</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
@@ -27359,45 +27359,45 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>6980179</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Karma Saaten Cracker Amaranth</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
         </is>
       </c>
       <c r="D381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E381" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>1.72/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27407,7 +27407,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -27417,56 +27417,60 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N381" t="inlineStr"/>
+          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>6980179</t>
+          <t>6637490</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth</t>
+          <t>Suter Pâté vaudois</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
         </is>
       </c>
       <c r="D382" t="n">
         <v>2</v>
       </c>
       <c r="E382" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Suter</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>3.55/100g</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27476,7 +27480,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -27486,60 +27490,58 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
+          <t>Suter Pâté vaudois - Online kein Bestand 3.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>6637490</t>
+          <t>6834497</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois</t>
+          <t>Quicook Blätterteig</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
-        </is>
-      </c>
-      <c r="D383" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/inspiration-geschenke/ernaehrung/vegan/brot-backwaren/quicook-blaetterteig/p/6834497</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr"/>
       <c r="E383" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Suter</t>
+          <t>Eclair</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>3.55/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27549,7 +27551,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -27559,58 +27561,60 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['inspiration-geschenke', 'ernaehrung', 'vegan', 'brot-backwaren']</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois - Online kein Bestand 3.90 Schweizer Franken</t>
+          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>6834497</t>
+          <t>6151960</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/ernaehrung/vegan/brot-backwaren/quicook-blaetterteig/p/6834497</t>
-        </is>
-      </c>
-      <c r="D384" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>1</v>
+      </c>
       <c r="E384" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Eclair</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>2.09/100g</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -27620,7 +27624,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -27630,60 +27634,56 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'ernaehrung', 'vegan', 'brot-backwaren']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N384" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>6151960</t>
+          <t>6609039</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
+          <t>Vergani Panettone vegan</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
         </is>
       </c>
       <c r="D385" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E385" t="n">
         <v>5</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>2.09/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -27693,7 +27693,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -27703,56 +27703,60 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N385" t="inlineStr"/>
+          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N385" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>6609039</t>
+          <t>6284830</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan</t>
+          <t>Leisi Kuchenteig eckig ausgewallt</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
         </is>
       </c>
       <c r="D386" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E386" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -27762,7 +27766,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -27772,60 +27776,58 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
+          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>6284830</t>
+          <t>6783372</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt</t>
+          <t>Old el Paso BBQ Pocket Kit</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
-        </is>
-      </c>
-      <c r="D387" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr"/>
       <c r="E387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>2.03/100g</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -27835,7 +27837,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -27845,58 +27847,60 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
+          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>6783372</t>
+          <t>7013464</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit</t>
+          <t>Betty Bossi Fussballteig</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
-        </is>
-      </c>
-      <c r="D388" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-fussballteig/p/7013464</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
       <c r="E388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>2.03/100g</t>
+          <t>0.79/100g</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -27906,7 +27910,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -27916,60 +27920,60 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
+          <t>Betty Bossi Fussballteig 20% ab 2 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>7013464</t>
+          <t>6472912</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Betty Bossi Fussballteig</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-fussballteig/p/7013464</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
         </is>
       </c>
       <c r="D389" t="n">
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>0.79/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -27979,7 +27983,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -27989,60 +27993,60 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>Betty Bossi Fussballteig 20% ab 2 Aktion 3.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 20% pro 3 Aktion 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegetarian']</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>6472912</t>
+          <t>6729401</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
+          <t>Roland Cracker Protein Nature</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-cracker-protein-nature/p/6729401</t>
         </is>
       </c>
       <c r="D390" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E390" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>3.07/100g</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28052,7 +28056,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -28062,60 +28066,56 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 20% pro 3 Aktion 1.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N390" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Roland Cracker Protein Nature 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>6729401</t>
+          <t>3040290</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Roland Cracker Protein Nature</t>
+          <t>Heumann Mazzen-Schnitten Koscher</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-cracker-protein-nature/p/6729401</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
         </is>
       </c>
       <c r="D391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E391" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Heumann</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>3.07/100g</t>
+          <t>1.61/100g</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28125,7 +28125,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -28135,56 +28135,56 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>Roland Cracker Protein Nature 4.60 Schweizer Franken</t>
+          <t>Heumann Mazzen-Schnitten Koscher 7.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>3040290</t>
+          <t>4529608</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher</t>
+          <t>Biberli Konfekt</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/biberli-konfekt/p/4529608</t>
         </is>
       </c>
       <c r="D392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E392" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>Heumann</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>1.61/100g</t>
+          <t>2.06/100g</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28194,7 +28194,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -28204,56 +28204,56 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher 7.25 Schweizer Franken</t>
+          <t>Biberli Konfekt 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>4529608</t>
+          <t>6775928</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Biberli Konfekt</t>
+          <t>Mezeast Falafel Wrap Kit</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/biberli-konfekt/p/4529608</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
         </is>
       </c>
       <c r="D393" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E393" t="n">
         <v>4</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>2.06/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28263,7 +28263,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -28273,56 +28273,54 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>Biberli Konfekt 4.95 Schweizer Franken</t>
+          <t>Mezeast Falafel Wrap Kit 30% ab 2 Aktion 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>6775928</t>
+          <t>7091314</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit</t>
+          <t>High Protein Cräcker BBQ</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
-        </is>
-      </c>
-      <c r="D394" t="n">
-        <v>7</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr"/>
       <c r="E394" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Layenberger</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>4.80/100g</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28332,7 +28330,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -28342,40 +28340,42 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit 30% ab 2 Aktion 6.95 Schweizer Franken</t>
+          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>7091314</t>
+          <t>7091313</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
-        </is>
-      </c>
-      <c r="D395" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>1</v>
+      </c>
       <c r="E395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
@@ -28414,51 +28414,49 @@
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>7091313</t>
+          <t>6629583</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
+          <t>Marmor Cake</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
-        </is>
-      </c>
-      <c r="D396" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr"/>
       <c r="E396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>Layenberger</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>0.71/100g</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28468,7 +28466,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -28478,35 +28476,35 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
+          <t>Marmor Cake 20% Aktion 4.95 Schweizer Franken statt 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>6629583</t>
+          <t>6146680</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Marmor Cake</t>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
         </is>
       </c>
       <c r="D397" t="inlineStr"/>
@@ -28515,17 +28513,17 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>0.71/100g</t>
+          <t>2.29/100g</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -28535,7 +28533,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -28550,49 +28548,55 @@
       </c>
       <c r="M397" t="inlineStr">
         <is>
-          <t>Marmor Cake 20% Aktion 4.95 Schweizer Franken statt 6.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N397" t="inlineStr"/>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 20% Aktion 4.40 Schweizer Franken statt 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>6146680</t>
+          <t>3152823</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
+          <t>Osem Crackers Vollkorn Koscher</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
-        </is>
-      </c>
-      <c r="D398" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>3</v>
+      </c>
       <c r="E398" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Osem</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>2.29/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -28602,7 +28606,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -28612,60 +28616,54 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M398" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 20% Aktion 4.40 Schweizer Franken statt 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N398" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>3152823</t>
+          <t>6561501</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
-        </is>
-      </c>
-      <c r="D399" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr"/>
       <c r="E399" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Osem</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.04/100g</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -28675,7 +28673,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -28685,35 +28683,39 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M399" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N399" t="inlineStr"/>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 20% Aktion 3.80 Schweizer Franken statt 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N399" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>6561501</t>
+          <t>3575044</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
+          <t>Holyland Matzen Koscher</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
         </is>
       </c>
       <c r="D400" t="inlineStr"/>
@@ -28722,17 +28724,17 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Telma</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>2.04/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -28742,7 +28744,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -28752,39 +28754,35 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M400" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 20% Aktion 3.80 Schweizer Franken statt 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N400" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Holyland Matzen Koscher 7.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>3575044</t>
+          <t>6569962</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher</t>
+          <t>Pasquier Croissants 8 Stück</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-croissants-8-stueck/p/6569962</t>
         </is>
       </c>
       <c r="D401" t="inlineStr"/>
@@ -28793,17 +28791,17 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>Telma</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>0.86/100g</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -28813,7 +28811,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -28823,54 +28821,56 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M401" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher 7.90 Schweizer Franken</t>
+          <t>Pasquier Croissants 8 Stück 30% Aktion 2.75 Schweizer Franken statt 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>6569962</t>
+          <t>6757196</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Pasquier Croissants 8 Stück</t>
+          <t>Vergani Panettone Glutenfrei</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-croissants-8-stueck/p/6569962</t>
-        </is>
-      </c>
-      <c r="D402" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-glutenfrei/p/6757196</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>4</v>
+      </c>
       <c r="E402" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>0.86/100g</t>
+          <t>2.49/100g</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -28880,7 +28880,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -28895,51 +28895,49 @@
       </c>
       <c r="M402" t="inlineStr">
         <is>
-          <t>Pasquier Croissants 8 Stück 30% Aktion 2.75 Schweizer Franken statt 3.95 Schweizer Franken</t>
+          <t>Vergani Panettone Glutenfrei 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>6757196</t>
+          <t>3040977</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Vergani Panettone Glutenfrei</t>
+          <t>Dahli Marzipanstollen</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-glutenfrei/p/6757196</t>
-        </is>
-      </c>
-      <c r="D403" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/dahli-marzipanstollen/p/3040977</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr"/>
       <c r="E403" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>Dahli</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>2.49/100g</t>
+          <t>1.35/100g</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -28949,7 +28947,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -28959,54 +28957,56 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M403" t="inlineStr">
         <is>
-          <t>Vergani Panettone Glutenfrei 14.95 Schweizer Franken</t>
+          <t>Dahli Marzipanstollen 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>3040977</t>
+          <t>5722124</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Dahli Marzipanstollen</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/dahli-marzipanstollen/p/3040977</t>
-        </is>
-      </c>
-      <c r="D404" t="inlineStr"/>
+          <t>/de/inspiration-geschenke/ernaehrung/vegetarisch/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>34</v>
+      </c>
       <c r="E404" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>Dahli</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>1.35/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -29016,7 +29016,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -29026,56 +29026,60 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['inspiration-geschenke', 'ernaehrung', 'vegetarisch']</t>
         </is>
       </c>
       <c r="M404" t="inlineStr">
         <is>
-          <t>Dahli Marzipanstollen 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N404" t="inlineStr"/>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm - Online kein Bestand 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N404" t="inlineStr">
+        <is>
+          <t>['chilled', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>5722124</t>
+          <t>6359050</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
+          <t>Biber mit Sujet 2x90g</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/ernaehrung/vegetarisch/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/biber-mit-sujet-2x90g/p/6359050</t>
         </is>
       </c>
       <c r="D405" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>2.19/100g</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -29085,7 +29089,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -29095,50 +29099,46 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'ernaehrung', 'vegetarisch']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M405" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm - Online kein Bestand 20% ab 2 Aktion 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N405" t="inlineStr">
-        <is>
-          <t>['chilled', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Biber mit Sujet 2x90g - Online kein Bestand 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>6359050</t>
+          <t>4967215</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Biber mit Sujet 2x90g</t>
+          <t>Bonne Maman Madeleine 7 Stück</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/biber-mit-sujet-2x90g/p/6359050</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
         </is>
       </c>
       <c r="D406" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E406" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
@@ -29148,7 +29148,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>2.19/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -29158,7 +29158,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -29173,37 +29173,35 @@
       </c>
       <c r="M406" t="inlineStr">
         <is>
-          <t>Biber mit Sujet 2x90g - Online kein Bestand 3.95 Schweizer Franken</t>
+          <t>Bonne Maman Madeleine 7 Stück - Online kein Bestand 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>4967215</t>
+          <t>4005123</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
-        </is>
-      </c>
-      <c r="D407" t="n">
-        <v>8</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr"/>
       <c r="E407" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F407" t="inlineStr">
         <is>
@@ -29212,12 +29210,12 @@
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>2.21/100g</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -29227,7 +29225,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -29242,49 +29240,51 @@
       </c>
       <c r="M407" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück - Online kein Bestand 3.95 Schweizer Franken</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>4005123</t>
+          <t>5804223</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
-        </is>
-      </c>
-      <c r="D408" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>39</v>
+      </c>
       <c r="E408" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>2.21/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -29294,7 +29294,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -29304,42 +29304,46 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M408" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N408" t="inlineStr"/>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm - Online kein Bestand 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N408" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>5804223</t>
+          <t>5722126</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
         </is>
       </c>
       <c r="D409" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E409" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F409" t="inlineStr">
         <is>
@@ -29353,7 +29357,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -29363,7 +29367,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -29373,95 +29377,22 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M409" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm - Online kein Bestand 4.95 Schweizer Franken</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei - Online kein Bestand 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-12-11 12:56:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>5722126</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
-        </is>
-      </c>
-      <c r="C410" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
-        </is>
-      </c>
-      <c r="D410" t="n">
-        <v>26</v>
-      </c>
-      <c r="E410" t="n">
-        <v>5</v>
-      </c>
-      <c r="F410" t="inlineStr">
-        <is>
-          <t>Leisi</t>
-        </is>
-      </c>
-      <c r="G410" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2.15/100g</t>
-        </is>
-      </c>
-      <c r="I410" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J410" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
-        </is>
-      </c>
-      <c r="M410" t="inlineStr">
-        <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei - Online kein Bestand 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N410" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
-      <c r="O410" t="inlineStr">
-        <is>
-          <t>2022-12-11 12:56:00</t>
+          <t>2022-12-11 20:49:36</t>
         </is>
       </c>
     </row>
